--- a/AZ-220 Study guide.xlsx
+++ b/AZ-220 Study guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hemant\Certification\Microsoft\AZ 220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A78C89-C992-4481-BE0D-9EAD3A8F3388}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37C9775-CA70-4012-B4B4-6B0BE0579AEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,18 +417,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -454,18 +448,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="5" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -802,8 +794,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -874,7 +866,7 @@
     </row>
     <row r="11" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -912,32 +904,32 @@
       </c>
     </row>
     <row r="18" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1041,8 +1033,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C44" s="10" t="s">
+    <row r="44" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C44" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1068,84 +1060,82 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C49" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C50" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C51" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C52" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C53" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C54" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C55" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C56" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C57" s="10" t="s">
+    <row r="57" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C57" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C58" s="10" t="s">
+    <row r="58" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C58" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="10" t="s">
+    <row r="59" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C59" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B60" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C61" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C62" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C63" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B64" s="2" t="s">
         <v>18</v>
       </c>

--- a/AZ-220 Study guide.xlsx
+++ b/AZ-220 Study guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hemant\Certification\Microsoft\AZ 220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37C9775-CA70-4012-B4B4-6B0BE0579AEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA7F2C3-E00B-4C05-AF80-ED328D66F0DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,7 +795,7 @@
   <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1368,7 +1368,7 @@
     <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="7"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="8" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1494,77 +1494,77 @@
     <hyperlink ref="C110" r:id="rId17" xr:uid="{E8B1D401-69DF-4C03-B732-024B5CD1694C}"/>
     <hyperlink ref="C111" r:id="rId18" xr:uid="{0F3B7FDF-183F-4A06-98E6-3C0A8BAD6602}"/>
     <hyperlink ref="C112" r:id="rId19" xr:uid="{A05ACB4B-5185-44F7-A974-CF28642F5BEA}"/>
-    <hyperlink ref="C102" r:id="rId20" xr:uid="{B6CE99BA-3377-4962-8D69-A9C508C78454}"/>
-    <hyperlink ref="C103" r:id="rId21" xr:uid="{4C895902-5382-40B2-AE3D-12D4A1CBFB83}"/>
-    <hyperlink ref="C104" r:id="rId22" xr:uid="{DCCE9692-A8D8-472B-AFF7-C25793B10901}"/>
-    <hyperlink ref="C105" r:id="rId23" xr:uid="{8625B04A-A085-447A-A19E-ACC53FDF4B4E}"/>
-    <hyperlink ref="C87" r:id="rId24" location="set-up-metrics" xr:uid="{595C5D4A-4E8F-4D56-9FF0-D1B0C4F87A85}"/>
-    <hyperlink ref="C88" r:id="rId25" location="enable-the-diagnostic-logs" xr:uid="{B9B34135-2698-4814-868B-A3CB88740534}"/>
-    <hyperlink ref="C89" r:id="rId26" location="query-and-visualize" xr:uid="{A7308D4C-7A6D-41E1-B9FF-C1C66BF94803}"/>
-    <hyperlink ref="C91" r:id="rId27" xr:uid="{B81C7FC7-E8ED-4CB5-A84F-0692EA1111E9}"/>
-    <hyperlink ref="C92" r:id="rId28" xr:uid="{1A1E67DE-0282-4DF3-9BA8-6008BFBBCCFB}"/>
-    <hyperlink ref="C93" r:id="rId29" xr:uid="{20F370C7-FE08-4A58-AB42-F051A17513C3}"/>
-    <hyperlink ref="C94" r:id="rId30" xr:uid="{BBF7C359-8D6C-4496-92D8-FC1B7FBF9432}"/>
-    <hyperlink ref="C95" r:id="rId31" xr:uid="{F75F35AB-8DCC-4970-849F-1B2340C2F0BC}"/>
-    <hyperlink ref="C97" r:id="rId32" xr:uid="{A7DE851A-5A22-4AD1-B951-27BD344342AF}"/>
-    <hyperlink ref="C98" r:id="rId33" xr:uid="{CFB93FA2-B39E-4D0C-8F0A-AC4B185DD8AD}"/>
-    <hyperlink ref="C99" r:id="rId34" xr:uid="{5FE2CE79-1C89-4D89-8874-F8027D123BDD}"/>
-    <hyperlink ref="C70" r:id="rId35" xr:uid="{192E4977-839A-4428-B45E-9B0BEA0FC868}"/>
-    <hyperlink ref="C71" r:id="rId36" xr:uid="{6D3E73E5-0446-45A7-8F41-4FECCF2A8E3D}"/>
-    <hyperlink ref="C72" r:id="rId37" xr:uid="{D001B609-4B4B-4E9B-9A09-F06F43EDE0FF}"/>
-    <hyperlink ref="C73" r:id="rId38" xr:uid="{AAF3AE37-3CD8-4819-9D5D-2EC88B96413A}"/>
-    <hyperlink ref="C74" r:id="rId39" xr:uid="{54408B0F-F78D-4365-AE68-E7EF1FA7AB09}"/>
-    <hyperlink ref="C75" r:id="rId40" xr:uid="{12DF188C-C1CD-4A51-9C27-4D0F18AAEE80}"/>
-    <hyperlink ref="C76" r:id="rId41" xr:uid="{E5D0CDA8-6CD8-49BF-BF9E-B87F8D178CDF}"/>
-    <hyperlink ref="C78" r:id="rId42" xr:uid="{5A0D8308-D61B-47EB-8025-CA386897952C}"/>
-    <hyperlink ref="C79" r:id="rId43" xr:uid="{59C1375C-AF90-4402-9D5F-3D954C53F4A7}"/>
-    <hyperlink ref="C80" r:id="rId44" location="input-and-output-streams" xr:uid="{57704E72-A696-4DF4-9C0D-A490A7F889D1}"/>
-    <hyperlink ref="C82" r:id="rId45" xr:uid="{36A13683-D627-407E-A965-9064874919A3}"/>
-    <hyperlink ref="C83" r:id="rId46" xr:uid="{723CE857-4933-46D7-BCE5-B50D0AB3E40E}"/>
-    <hyperlink ref="C84" r:id="rId47" xr:uid="{916ACFF0-B8C9-4A3B-8B6D-4C6B42DF505F}"/>
-    <hyperlink ref="C47" r:id="rId48" xr:uid="{194A67A9-14A7-49D5-A59F-225AD5AB8852}"/>
-    <hyperlink ref="C49" r:id="rId49" xr:uid="{26EA88BE-FE9C-4A6A-9CBC-7A6E79CCEE06}"/>
-    <hyperlink ref="C48" r:id="rId50" xr:uid="{22BC8E86-CDEE-49C8-A02E-0E4CFA034227}"/>
-    <hyperlink ref="C50" r:id="rId51" xr:uid="{13A91F9F-9D27-44B0-ACFA-F98500714036}"/>
-    <hyperlink ref="C53" r:id="rId52" xr:uid="{F2BD6280-EB3B-47B2-B8C0-F91664A6D656}"/>
-    <hyperlink ref="C51" r:id="rId53" xr:uid="{B4487546-C3B1-4B85-86C1-C4B5C2F96513}"/>
-    <hyperlink ref="C52" r:id="rId54" xr:uid="{D7E2DF77-6A68-4513-80FD-BF50F5A9B16A}"/>
-    <hyperlink ref="C54" r:id="rId55" location="install-the-container-runtime" xr:uid="{285A2611-8F15-4DAD-B641-142E68F04FA8}"/>
-    <hyperlink ref="C55" r:id="rId56" xr:uid="{BBE50969-6F61-4E6F-9C90-FF3332EA82BF}"/>
-    <hyperlink ref="C56" r:id="rId57" xr:uid="{B415565C-AE5A-40DD-8158-7085572CDD21}"/>
-    <hyperlink ref="C57" r:id="rId58" xr:uid="{E7BD23D4-341F-4085-A75E-A2DFB21989E9}"/>
-    <hyperlink ref="C58" r:id="rId59" xr:uid="{65D64258-E3C8-4192-A090-EEEA6A845A3C}"/>
-    <hyperlink ref="C59" r:id="rId60" xr:uid="{5B1195E2-0015-4440-AD88-9F2222A91DDB}"/>
-    <hyperlink ref="C61" r:id="rId61" xr:uid="{5D2C96C0-8B23-42AB-9F56-8AD0C8330F08}"/>
-    <hyperlink ref="C62" r:id="rId62" xr:uid="{1EE1B11D-1E97-43A1-B32E-79777D3E7BBC}"/>
-    <hyperlink ref="C63" r:id="rId63" xr:uid="{040F2147-390F-4CB5-8AE2-FDC171D09921}"/>
-    <hyperlink ref="C65" r:id="rId64" xr:uid="{0FCA54C6-26F0-4A20-9EBF-AD7EB6CC6BC7}"/>
-    <hyperlink ref="C66" r:id="rId65" location="module-communication" xr:uid="{F7F7DAD8-FEBE-4F16-B337-582E8208C067}"/>
-    <hyperlink ref="C67" r:id="rId66" xr:uid="{63E6113B-DCAA-4960-BC63-C1B96223D716}"/>
-    <hyperlink ref="C18" r:id="rId67" xr:uid="{531A17C7-EB6F-4FA6-976E-F063C9C9270D}"/>
-    <hyperlink ref="C19" r:id="rId68" xr:uid="{2602E657-3CF6-4B11-8269-6D0A6A7EF761}"/>
-    <hyperlink ref="C20" r:id="rId69" xr:uid="{5788FA4D-347F-4D5F-9F95-7418A086C461}"/>
-    <hyperlink ref="C21" r:id="rId70" xr:uid="{F9FC923B-9623-44B3-9294-9FF92E1A2580}"/>
-    <hyperlink ref="C22" r:id="rId71" xr:uid="{37ED8356-DC03-45B8-9B48-43A0D80CE538}"/>
-    <hyperlink ref="C23" r:id="rId72" xr:uid="{016C3A90-4708-4308-B84A-5768621EF8C9}"/>
-    <hyperlink ref="C25" r:id="rId73" xr:uid="{45E55C04-3774-4F45-B3BF-E7CC1AFB47D3}"/>
-    <hyperlink ref="C26" r:id="rId74" xr:uid="{1372203A-1F74-431E-9DB9-24F4105BEA61}"/>
-    <hyperlink ref="C27" r:id="rId75" xr:uid="{FB663855-2B2D-477C-B17C-83014495C4EB}"/>
-    <hyperlink ref="C28" r:id="rId76" xr:uid="{1ED4E9AF-2346-4275-ADF6-5C5E77F50F00}"/>
-    <hyperlink ref="C29" r:id="rId77" xr:uid="{6256868C-4516-47ED-8E4D-5A8566390158}"/>
-    <hyperlink ref="C31" r:id="rId78" xr:uid="{A2BB542E-FAE6-4577-9291-5870D3FC4972}"/>
-    <hyperlink ref="C32" r:id="rId79" xr:uid="{8FB83247-0AB3-4F81-B2A1-953AC918FC92}"/>
-    <hyperlink ref="C33" r:id="rId80" xr:uid="{8E19C25B-D259-4545-9B03-30F01C75E782}"/>
-    <hyperlink ref="C34" r:id="rId81" xr:uid="{BFF4F21A-9762-4B39-BA9A-97779F3EFCFC}"/>
-    <hyperlink ref="C35" r:id="rId82" xr:uid="{F40ED3F6-465B-43A7-A8B2-AF984090CE4C}"/>
-    <hyperlink ref="C36" r:id="rId83" xr:uid="{A6D06061-62B3-4F37-95C2-637A4B7B6642}"/>
-    <hyperlink ref="C38" r:id="rId84" xr:uid="{F48A742A-C6E8-4CDF-93A3-7846FD2FE702}"/>
-    <hyperlink ref="C39" r:id="rId85" xr:uid="{A779925A-457A-4C30-ADDB-0FF493EF90B1}"/>
-    <hyperlink ref="C40" r:id="rId86" xr:uid="{1C94139B-80E8-4767-973B-B95368B9018A}"/>
-    <hyperlink ref="C41" r:id="rId87" xr:uid="{C96E8241-33CF-4AA2-AFCB-AF04A1118689}"/>
-    <hyperlink ref="C42" r:id="rId88" xr:uid="{2CAC28FF-BBDD-4441-B379-736413FEFC11}"/>
-    <hyperlink ref="C43" r:id="rId89" xr:uid="{D7959770-6674-4BA0-83A3-274D3A5FFEB8}"/>
-    <hyperlink ref="C44" r:id="rId90" xr:uid="{7BCF9DD0-756F-4D8B-981B-A472115C736B}"/>
+    <hyperlink ref="C103" r:id="rId20" xr:uid="{4C895902-5382-40B2-AE3D-12D4A1CBFB83}"/>
+    <hyperlink ref="C104" r:id="rId21" xr:uid="{DCCE9692-A8D8-472B-AFF7-C25793B10901}"/>
+    <hyperlink ref="C105" r:id="rId22" xr:uid="{8625B04A-A085-447A-A19E-ACC53FDF4B4E}"/>
+    <hyperlink ref="C87" r:id="rId23" location="set-up-metrics" xr:uid="{595C5D4A-4E8F-4D56-9FF0-D1B0C4F87A85}"/>
+    <hyperlink ref="C88" r:id="rId24" location="enable-the-diagnostic-logs" xr:uid="{B9B34135-2698-4814-868B-A3CB88740534}"/>
+    <hyperlink ref="C89" r:id="rId25" location="query-and-visualize" xr:uid="{A7308D4C-7A6D-41E1-B9FF-C1C66BF94803}"/>
+    <hyperlink ref="C91" r:id="rId26" xr:uid="{B81C7FC7-E8ED-4CB5-A84F-0692EA1111E9}"/>
+    <hyperlink ref="C92" r:id="rId27" xr:uid="{1A1E67DE-0282-4DF3-9BA8-6008BFBBCCFB}"/>
+    <hyperlink ref="C93" r:id="rId28" xr:uid="{20F370C7-FE08-4A58-AB42-F051A17513C3}"/>
+    <hyperlink ref="C94" r:id="rId29" xr:uid="{BBF7C359-8D6C-4496-92D8-FC1B7FBF9432}"/>
+    <hyperlink ref="C95" r:id="rId30" xr:uid="{F75F35AB-8DCC-4970-849F-1B2340C2F0BC}"/>
+    <hyperlink ref="C97" r:id="rId31" xr:uid="{A7DE851A-5A22-4AD1-B951-27BD344342AF}"/>
+    <hyperlink ref="C98" r:id="rId32" xr:uid="{CFB93FA2-B39E-4D0C-8F0A-AC4B185DD8AD}"/>
+    <hyperlink ref="C99" r:id="rId33" xr:uid="{5FE2CE79-1C89-4D89-8874-F8027D123BDD}"/>
+    <hyperlink ref="C70" r:id="rId34" xr:uid="{192E4977-839A-4428-B45E-9B0BEA0FC868}"/>
+    <hyperlink ref="C71" r:id="rId35" xr:uid="{6D3E73E5-0446-45A7-8F41-4FECCF2A8E3D}"/>
+    <hyperlink ref="C72" r:id="rId36" xr:uid="{D001B609-4B4B-4E9B-9A09-F06F43EDE0FF}"/>
+    <hyperlink ref="C73" r:id="rId37" xr:uid="{AAF3AE37-3CD8-4819-9D5D-2EC88B96413A}"/>
+    <hyperlink ref="C74" r:id="rId38" xr:uid="{54408B0F-F78D-4365-AE68-E7EF1FA7AB09}"/>
+    <hyperlink ref="C75" r:id="rId39" xr:uid="{12DF188C-C1CD-4A51-9C27-4D0F18AAEE80}"/>
+    <hyperlink ref="C76" r:id="rId40" xr:uid="{E5D0CDA8-6CD8-49BF-BF9E-B87F8D178CDF}"/>
+    <hyperlink ref="C78" r:id="rId41" xr:uid="{5A0D8308-D61B-47EB-8025-CA386897952C}"/>
+    <hyperlink ref="C79" r:id="rId42" xr:uid="{59C1375C-AF90-4402-9D5F-3D954C53F4A7}"/>
+    <hyperlink ref="C80" r:id="rId43" location="input-and-output-streams" xr:uid="{57704E72-A696-4DF4-9C0D-A490A7F889D1}"/>
+    <hyperlink ref="C82" r:id="rId44" xr:uid="{36A13683-D627-407E-A965-9064874919A3}"/>
+    <hyperlink ref="C83" r:id="rId45" xr:uid="{723CE857-4933-46D7-BCE5-B50D0AB3E40E}"/>
+    <hyperlink ref="C84" r:id="rId46" xr:uid="{916ACFF0-B8C9-4A3B-8B6D-4C6B42DF505F}"/>
+    <hyperlink ref="C47" r:id="rId47" xr:uid="{194A67A9-14A7-49D5-A59F-225AD5AB8852}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{26EA88BE-FE9C-4A6A-9CBC-7A6E79CCEE06}"/>
+    <hyperlink ref="C48" r:id="rId49" xr:uid="{22BC8E86-CDEE-49C8-A02E-0E4CFA034227}"/>
+    <hyperlink ref="C50" r:id="rId50" xr:uid="{13A91F9F-9D27-44B0-ACFA-F98500714036}"/>
+    <hyperlink ref="C53" r:id="rId51" xr:uid="{F2BD6280-EB3B-47B2-B8C0-F91664A6D656}"/>
+    <hyperlink ref="C51" r:id="rId52" xr:uid="{B4487546-C3B1-4B85-86C1-C4B5C2F96513}"/>
+    <hyperlink ref="C52" r:id="rId53" xr:uid="{D7E2DF77-6A68-4513-80FD-BF50F5A9B16A}"/>
+    <hyperlink ref="C54" r:id="rId54" location="install-the-container-runtime" xr:uid="{285A2611-8F15-4DAD-B641-142E68F04FA8}"/>
+    <hyperlink ref="C55" r:id="rId55" xr:uid="{BBE50969-6F61-4E6F-9C90-FF3332EA82BF}"/>
+    <hyperlink ref="C56" r:id="rId56" xr:uid="{B415565C-AE5A-40DD-8158-7085572CDD21}"/>
+    <hyperlink ref="C57" r:id="rId57" xr:uid="{E7BD23D4-341F-4085-A75E-A2DFB21989E9}"/>
+    <hyperlink ref="C58" r:id="rId58" xr:uid="{65D64258-E3C8-4192-A090-EEEA6A845A3C}"/>
+    <hyperlink ref="C59" r:id="rId59" xr:uid="{5B1195E2-0015-4440-AD88-9F2222A91DDB}"/>
+    <hyperlink ref="C61" r:id="rId60" xr:uid="{5D2C96C0-8B23-42AB-9F56-8AD0C8330F08}"/>
+    <hyperlink ref="C62" r:id="rId61" xr:uid="{1EE1B11D-1E97-43A1-B32E-79777D3E7BBC}"/>
+    <hyperlink ref="C63" r:id="rId62" xr:uid="{040F2147-390F-4CB5-8AE2-FDC171D09921}"/>
+    <hyperlink ref="C65" r:id="rId63" xr:uid="{0FCA54C6-26F0-4A20-9EBF-AD7EB6CC6BC7}"/>
+    <hyperlink ref="C66" r:id="rId64" location="module-communication" xr:uid="{F7F7DAD8-FEBE-4F16-B337-582E8208C067}"/>
+    <hyperlink ref="C67" r:id="rId65" xr:uid="{63E6113B-DCAA-4960-BC63-C1B96223D716}"/>
+    <hyperlink ref="C18" r:id="rId66" xr:uid="{531A17C7-EB6F-4FA6-976E-F063C9C9270D}"/>
+    <hyperlink ref="C19" r:id="rId67" xr:uid="{2602E657-3CF6-4B11-8269-6D0A6A7EF761}"/>
+    <hyperlink ref="C20" r:id="rId68" xr:uid="{5788FA4D-347F-4D5F-9F95-7418A086C461}"/>
+    <hyperlink ref="C21" r:id="rId69" xr:uid="{F9FC923B-9623-44B3-9294-9FF92E1A2580}"/>
+    <hyperlink ref="C22" r:id="rId70" xr:uid="{37ED8356-DC03-45B8-9B48-43A0D80CE538}"/>
+    <hyperlink ref="C23" r:id="rId71" xr:uid="{016C3A90-4708-4308-B84A-5768621EF8C9}"/>
+    <hyperlink ref="C25" r:id="rId72" xr:uid="{45E55C04-3774-4F45-B3BF-E7CC1AFB47D3}"/>
+    <hyperlink ref="C26" r:id="rId73" xr:uid="{1372203A-1F74-431E-9DB9-24F4105BEA61}"/>
+    <hyperlink ref="C27" r:id="rId74" xr:uid="{FB663855-2B2D-477C-B17C-83014495C4EB}"/>
+    <hyperlink ref="C28" r:id="rId75" xr:uid="{1ED4E9AF-2346-4275-ADF6-5C5E77F50F00}"/>
+    <hyperlink ref="C29" r:id="rId76" xr:uid="{6256868C-4516-47ED-8E4D-5A8566390158}"/>
+    <hyperlink ref="C31" r:id="rId77" xr:uid="{A2BB542E-FAE6-4577-9291-5870D3FC4972}"/>
+    <hyperlink ref="C32" r:id="rId78" xr:uid="{8FB83247-0AB3-4F81-B2A1-953AC918FC92}"/>
+    <hyperlink ref="C33" r:id="rId79" xr:uid="{8E19C25B-D259-4545-9B03-30F01C75E782}"/>
+    <hyperlink ref="C34" r:id="rId80" xr:uid="{BFF4F21A-9762-4B39-BA9A-97779F3EFCFC}"/>
+    <hyperlink ref="C35" r:id="rId81" xr:uid="{F40ED3F6-465B-43A7-A8B2-AF984090CE4C}"/>
+    <hyperlink ref="C36" r:id="rId82" xr:uid="{A6D06061-62B3-4F37-95C2-637A4B7B6642}"/>
+    <hyperlink ref="C38" r:id="rId83" xr:uid="{F48A742A-C6E8-4CDF-93A3-7846FD2FE702}"/>
+    <hyperlink ref="C39" r:id="rId84" xr:uid="{A779925A-457A-4C30-ADDB-0FF493EF90B1}"/>
+    <hyperlink ref="C40" r:id="rId85" xr:uid="{1C94139B-80E8-4767-973B-B95368B9018A}"/>
+    <hyperlink ref="C41" r:id="rId86" xr:uid="{C96E8241-33CF-4AA2-AFCB-AF04A1118689}"/>
+    <hyperlink ref="C42" r:id="rId87" xr:uid="{2CAC28FF-BBDD-4441-B379-736413FEFC11}"/>
+    <hyperlink ref="C43" r:id="rId88" xr:uid="{D7959770-6674-4BA0-83A3-274D3A5FFEB8}"/>
+    <hyperlink ref="C44" r:id="rId89" xr:uid="{7BCF9DD0-756F-4D8B-981B-A472115C736B}"/>
+    <hyperlink ref="C102" r:id="rId90" xr:uid="{9E060991-039A-4CD5-8FF3-66AD66E6526D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId91"/>
